--- a/doc/外部設計/04_外部設計書(カレンダー登録)_チーム名.xlsx
+++ b/doc/外部設計/04_外部設計書(カレンダー登録)_チーム名.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA20108-FA36-41DD-B48C-A5C6566634FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9753BB77-B3EE-4B22-BE18-7AB33325A73E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10" yWindow="20" windowWidth="9540" windowHeight="10520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="680" windowWidth="17980" windowHeight="9390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -639,10 +639,6 @@
   </si>
   <si>
     <t>select</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>button</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -699,6 +695,18 @@
   </si>
   <si>
     <t>plan_date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>textarea</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1124,24 +1132,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1172,9 +1162,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1193,7 +1180,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3856,7 +3864,7 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G74" zoomScale="76" workbookViewId="0">
-      <selection activeCell="AA86" sqref="AA86"/>
+      <selection activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3867,152 +3875,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34" t="s">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35" t="s">
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="20"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="36"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="21" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="42">
+      <c r="X2" s="37"/>
+      <c r="Y2" s="38">
         <v>45085</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22" t="s">
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="41"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="36" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="34"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -7109,7 +7117,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
@@ -7121,7 +7129,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
       <c r="L79" s="14" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
@@ -7159,7 +7167,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
@@ -7209,7 +7217,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
@@ -7221,7 +7229,7 @@
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
@@ -7259,7 +7267,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
@@ -7276,7 +7284,7 @@
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
       <c r="O82" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
@@ -7290,13 +7298,13 @@
         <v>10</v>
       </c>
       <c r="W82" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
@@ -7319,7 +7327,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
@@ -7336,7 +7344,7 @@
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
       <c r="O83" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
@@ -7350,7 +7358,7 @@
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
       <c r="AA83" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
@@ -7373,7 +7381,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
@@ -7390,7 +7398,7 @@
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
       <c r="O84" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
@@ -7404,7 +7412,7 @@
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
       <c r="AA84" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
@@ -7427,7 +7435,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
@@ -7444,7 +7452,7 @@
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
@@ -7456,13 +7464,13 @@
         <v>20</v>
       </c>
       <c r="W85" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X85" s="15"/>
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
       <c r="AA85" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
@@ -7485,7 +7493,7 @@
         <v>8</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
@@ -7497,12 +7505,12 @@
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
       <c r="L86" s="14" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
       <c r="O86" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P86" s="15"/>
       <c r="Q86" s="15"/>
@@ -7514,13 +7522,13 @@
         <v>50</v>
       </c>
       <c r="W86" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X86" s="15"/>
       <c r="Y86" s="15"/>
       <c r="Z86" s="17"/>
       <c r="AA86" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB86" s="15"/>
       <c r="AC86" s="17"/>
@@ -7543,7 +7551,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
@@ -7555,7 +7563,7 @@
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
       <c r="L87" s="14" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
@@ -7593,7 +7601,7 @@
         <v>10</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -7605,7 +7613,7 @@
       <c r="J88" s="15"/>
       <c r="K88" s="17"/>
       <c r="L88" s="14" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="M88" s="15"/>
       <c r="N88" s="17"/>

--- a/doc/外部設計/04_外部設計書(カレンダー登録)_チーム名.xlsx
+++ b/doc/外部設計/04_外部設計書(カレンダー登録)_チーム名.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9753BB77-B3EE-4B22-BE18-7AB33325A73E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920C319D-5641-4DF3-BD50-1CE474009665}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="680" windowWidth="17980" windowHeight="9390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -1226,16 +1226,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>35774</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236300</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>26830</xdr:rowOff>
+      <xdr:rowOff>10119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>214647</xdr:colOff>
+      <xdr:colOff>164515</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>98379</xdr:rowOff>
+      <xdr:rowOff>81668</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1250,7 +1250,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3102156" y="1179856"/>
+          <a:off x="3052024" y="1163145"/>
           <a:ext cx="3186767" cy="5260168"/>
           <a:chOff x="18056620" y="758938"/>
           <a:chExt cx="2626196" cy="3910104"/>
@@ -1503,7 +1503,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1606550" y="3497362"/>
+              <a:off x="2758336" y="3540418"/>
               <a:ext cx="965200" cy="313850"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -1606,7 +1606,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2667000" y="3497362"/>
+              <a:off x="1556349" y="3528116"/>
               <a:ext cx="1009650" cy="313850"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -3405,10 +3405,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>208565</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>110185</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>241987</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1567</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="549438" cy="530658"/>
     <xdr:sp macro="" textlink="">
@@ -3424,7 +3424,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2963213" y="5744692"/>
+          <a:off x="6065605" y="5958870"/>
           <a:ext cx="549438" cy="530658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3472,10 +3472,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>92656</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>155261</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9103</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80064</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="549438" cy="530658"/>
     <xdr:sp macro="" textlink="">
@@ -3491,7 +3491,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5852374" y="5789768"/>
+          <a:off x="2824827" y="6037367"/>
           <a:ext cx="549438" cy="530658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3863,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G74" zoomScale="76" workbookViewId="0">
-      <selection activeCell="L89" sqref="L89"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="76" workbookViewId="0">
+      <selection activeCell="AI18" sqref="AI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
